--- a/backend/common/primary_data/小学插班开放时间.xlsx
+++ b/backend/common/primary_data/小学插班开放时间.xlsx
@@ -18833,8 +18833,8 @@
   <sheetPr/>
   <dimension ref="A1:BD508"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="AU196" workbookViewId="0">
+      <selection activeCell="A238" sqref="$A238:$XFD238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3818181818182" defaultRowHeight="14"/>
